--- a/graphics/ruralHosp-20180724/ruralHosp-20180724.xlsx
+++ b/graphics/ruralHosp-20180724/ruralHosp-20180724.xlsx
@@ -17,37 +17,25 @@
     <t>key</t>
   </si>
   <si>
-    <t>type</t>
+    <t>value</t>
   </si>
   <si>
-    <t>value</t>
+    <t>type</t>
   </si>
   <si>
     <t>Hospital</t>
   </si>
   <si>
-    <t>headline</t>
-  </si>
-  <si>
     <t>y2011</t>
   </si>
   <si>
-    <t>Outpatient lab charges&lt;br&gt;&lt;small&gt;As a percent of total hospital charges, 2011-2017&lt;/small&gt;</t>
-  </si>
-  <si>
     <t>y2012</t>
-  </si>
-  <si>
-    <t>subhed</t>
   </si>
   <si>
     <t>y2013</t>
   </si>
   <si>
     <t>y2014</t>
-  </si>
-  <si>
-    <t>&lt;strong&gt;A lab processing strategy that could potentially draw higher reimbursement from commercial payers is likely behind big increases in rural hospital charges.&lt;/strong&gt; Here are hospitals whose outpatient lab charges exceeded 30% of their total charges in either 2016 or 2017, the year of their most recent Medicare cost report.</t>
   </si>
   <si>
     <t>y2015</t>
@@ -59,13 +47,19 @@
     <t>y2017</t>
   </si>
   <si>
+    <t>headline</t>
+  </si>
+  <si>
     <t>percchg</t>
   </si>
   <si>
-    <t>footnote</t>
+    <t>Outpatient lab charges&lt;br&gt;&lt;small&gt;As a percent of total hospital charges, 2011-2017&lt;/small&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;i&gt;* Percentage-point change from earliest year available to latest year available, 2011-2017. &lt;/i&gt;&lt;br&gt;Note: Quartz, pimtaom is currently called Mangum Regional Medical Center &lt;br&gt;Some ratios were calculated using total hospital charges data provided by Modern Healthcare Metrics and others used total hospital charges provided by Franklin Trust Ratings. </t>
+    <t>subhed</t>
+  </si>
+  <si>
+    <t>&lt;strong&gt;A lab processing strategy that could potentially draw higher reimbursement from commercial payers is likely behind big increases in rural hospital charges.&lt;/strong&gt; Here are hospitals whose outpatient lab charges exceeded 30% of their total charges in either 2016 or 2017, the year of their most recent Medicare cost report.</t>
   </si>
   <si>
     <t>Critical-access hospitals</t>
@@ -77,22 +71,31 @@
     <t>24</t>
   </si>
   <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>footnote</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;i&gt;* Percentage-point change from earliest year available to latest year available, 2011-2017. &lt;/i&gt;&lt;br&gt;Note: Quartz, pimtaom is currently called Mangum Regional Medical Center &lt;br&gt;Some ratios were calculated using total hospital charges data provided by Modern Healthcare Metrics and others used total hospital charges provided by Franklin Trust Ratings. </t>
+  </si>
+  <si>
     <t>source</t>
   </si>
   <si>
     <t>Modern Healthcare Metrics and Franklin Trust Ratings</t>
   </si>
   <si>
-    <t>--</t>
+    <t>Mountain Lakes Medical Center, Clayton, Ga.</t>
   </si>
   <si>
     <t>credit</t>
   </si>
   <si>
-    <t>Mountain Lakes Medical Center, Clayton, Ga.</t>
+    <t>14</t>
   </si>
   <si>
-    <t>14</t>
+    <t>Mercy Hospital Columbus(Kan.)</t>
   </si>
   <si>
     <t>hdr_state</t>
@@ -104,22 +107,19 @@
     <t>hdr_something</t>
   </si>
   <si>
-    <t>Mercy Hospital Columbus(Kan.)</t>
+    <t>Something</t>
   </si>
   <si>
-    <t>Something</t>
+    <t>Pointe Coupee General Hospital, New Roads, La.</t>
+  </si>
+  <si>
+    <t>23</t>
   </si>
   <si>
     <t>hdr_another_thing</t>
   </si>
   <si>
     <t>Another Thing</t>
-  </si>
-  <si>
-    <t>Pointe Coupee General Hospital, New Roads, La.</t>
-  </si>
-  <si>
-    <t>23</t>
   </si>
   <si>
     <t>I-70 Community Hospital, Sweet Springs, Mo.</t>
@@ -260,34 +260,34 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="3" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
@@ -336,596 +336,596 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
     </row>
     <row r="2" ht="33.0" customHeight="1">
-      <c r="A2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
+      <c r="A2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
     </row>
     <row r="3" ht="33.0" customHeight="1">
-      <c r="A3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
+      <c r="A3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
     </row>
     <row r="4" ht="33.0" customHeight="1">
-      <c r="A4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
+      <c r="A4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
     </row>
     <row r="5" ht="33.0" customHeight="1">
-      <c r="A5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
+      <c r="B5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
     </row>
     <row r="6" ht="33.0" customHeight="1">
-      <c r="A6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
+      <c r="A6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
     </row>
     <row r="7" ht="33.0" customHeight="1">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
     </row>
     <row r="8" ht="33.0" customHeight="1">
-      <c r="A8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="A8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
+      <c r="B8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
     </row>
     <row r="9" ht="33.0" customHeight="1">
-      <c r="A9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
     </row>
     <row r="10" ht="33.0" customHeight="1">
-      <c r="A10" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
+      <c r="A10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="9"/>
     </row>
     <row r="11" ht="33.0" customHeight="1">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
-      <c r="Z11" s="7"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="9"/>
     </row>
     <row r="12" ht="33.0" customHeight="1">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="7"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
     </row>
     <row r="13" ht="33.0" customHeight="1">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="7"/>
-      <c r="Y13" s="7"/>
-      <c r="Z13" s="7"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9"/>
     </row>
     <row r="14" ht="33.0" customHeight="1">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="7"/>
-      <c r="Y14" s="7"/>
-      <c r="Z14" s="7"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
     </row>
     <row r="15" ht="33.0" customHeight="1">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
-      <c r="X15" s="7"/>
-      <c r="Y15" s="7"/>
-      <c r="Z15" s="7"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9"/>
     </row>
     <row r="16" ht="33.0" customHeight="1">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="7"/>
-      <c r="Y16" s="7"/>
-      <c r="Z16" s="7"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="9"/>
     </row>
     <row r="17" ht="33.0" customHeight="1">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="7"/>
-      <c r="X17" s="7"/>
-      <c r="Y17" s="7"/>
-      <c r="Z17" s="7"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="9"/>
+      <c r="Y17" s="9"/>
+      <c r="Z17" s="9"/>
     </row>
     <row r="18" ht="33.0" customHeight="1">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="7"/>
-      <c r="W18" s="7"/>
-      <c r="X18" s="7"/>
-      <c r="Y18" s="7"/>
-      <c r="Z18" s="7"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="9"/>
+      <c r="Z18" s="9"/>
     </row>
     <row r="19" ht="33.0" customHeight="1">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="7"/>
-      <c r="W19" s="7"/>
-      <c r="X19" s="7"/>
-      <c r="Y19" s="7"/>
-      <c r="Z19" s="7"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="9"/>
+      <c r="X19" s="9"/>
+      <c r="Y19" s="9"/>
+      <c r="Z19" s="9"/>
     </row>
     <row r="20" ht="33.0" customHeight="1">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="7"/>
-      <c r="W20" s="7"/>
-      <c r="X20" s="7"/>
-      <c r="Y20" s="7"/>
-      <c r="Z20" s="7"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="9"/>
+      <c r="Z20" s="9"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -948,80 +948,80 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
+      <c r="A1" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="G1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="I1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="D2" s="6">
+        <v>25.0</v>
+      </c>
+      <c r="E2" s="6">
+        <v>26.0</v>
+      </c>
+      <c r="F2" s="6">
+        <v>27.0</v>
+      </c>
+      <c r="G2" s="6">
+        <v>30.0</v>
+      </c>
+      <c r="H2" s="6">
+        <v>32.0</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="8">
-        <v>25.0</v>
-      </c>
-      <c r="E2" s="8">
-        <v>26.0</v>
-      </c>
-      <c r="F2" s="8">
-        <v>27.0</v>
-      </c>
-      <c r="G2" s="8">
-        <v>30.0</v>
-      </c>
-      <c r="H2" s="8">
-        <v>32.0</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="J2" s="12">
         <f t="shared" ref="J2:J3" si="1">H2-C2</f>
@@ -1029,32 +1029,32 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>18</v>
+      <c r="A3" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="6">
         <v>15.0</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="6">
         <v>16.0</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="6">
         <v>15.0</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="6">
         <v>14.0</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="6">
         <v>65.0</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>23</v>
+      <c r="I3" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="J3" s="12">
         <f t="shared" si="1"/>
@@ -1062,31 +1062,31 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>18</v>
+      <c r="A4" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="8">
+        <v>19</v>
+      </c>
+      <c r="D4" s="6">
         <v>29.0</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="6">
         <v>39.0</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="6">
         <v>44.0</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="6">
         <v>45.0</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="6">
         <v>48.0</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="6">
         <v>41.0</v>
       </c>
       <c r="J4" s="12">
@@ -1095,32 +1095,32 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>18</v>
+      <c r="A5" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="8">
+        <v>32</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="6">
         <v>23.0</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="6">
         <v>31.0</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="6">
         <v>31.0</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="6">
         <v>32.0</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="6">
         <v>31.0</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>23</v>
+      <c r="I5" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="J5" s="12">
         <f>H5-C5</f>
@@ -1128,31 +1128,31 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>18</v>
+      <c r="A6" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="6">
         <v>14.0</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="6">
         <v>14.0</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="6">
         <v>15.0</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="6">
         <v>14.0</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="6">
         <v>15.0</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="6">
         <v>32.0</v>
       </c>
       <c r="J6" s="12">
@@ -1161,32 +1161,32 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>18</v>
+      <c r="A7" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="6">
         <v>33.0</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="6">
         <v>32.0</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="6">
         <v>32.0</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="6">
         <v>36.0</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="6">
         <v>38.0</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>23</v>
+      <c r="I7" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="J7" s="12">
         <f>H7-C7</f>
@@ -1194,31 +1194,31 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>18</v>
+      <c r="A8" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="6">
         <v>23.0</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="6">
         <v>28.0</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="6">
         <v>32.0</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="6">
         <v>32.0</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="6">
         <v>37.0</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="6">
         <v>62.0</v>
       </c>
       <c r="J8" s="12">
@@ -1227,31 +1227,31 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>18</v>
+      <c r="A9" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="6">
         <v>9.0</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="6">
         <v>8.0</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="6">
         <v>8.0</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="6">
         <v>8.0</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="6">
         <v>28.0</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="6">
         <v>44.0</v>
       </c>
       <c r="J9" s="12">
@@ -1260,32 +1260,32 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>18</v>
+      <c r="A10" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="6">
         <v>10.0</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="6">
         <v>6.0</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="6">
         <v>6.0</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="6">
         <v>19.0</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="6">
         <v>53.0</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>23</v>
+      <c r="I10" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="J10" s="12">
         <f>H10-C10</f>
@@ -1293,31 +1293,31 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="s">
-        <v>18</v>
+      <c r="A11" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="8">
+        <v>19</v>
+      </c>
+      <c r="D11" s="6">
         <v>37.0</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="6">
         <v>38.0</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="6">
         <v>35.0</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="6">
         <v>35.0</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="6">
         <v>34.0</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="6">
         <v>31.0</v>
       </c>
       <c r="J11" s="12">
@@ -1326,31 +1326,31 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="s">
-        <v>18</v>
+      <c r="A12" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="6">
         <v>33.0</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="6">
         <v>36.0</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="6">
         <v>39.0</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="6">
         <v>35.0</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="6">
         <v>36.0</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="6">
         <v>33.0</v>
       </c>
       <c r="J12" s="12">
@@ -1359,31 +1359,31 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="s">
-        <v>18</v>
+      <c r="A13" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="6">
         <v>34.0</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="6">
         <v>31.0</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="6">
         <v>30.0</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="6">
         <v>29.0</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="6">
         <v>34.0</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="6">
         <v>30.0</v>
       </c>
       <c r="J13" s="12">
@@ -1392,32 +1392,32 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="s">
-        <v>18</v>
+      <c r="A14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="6">
         <v>10.0</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="6">
         <v>6.0</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="6">
         <v>7.0</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="6">
         <v>62.0</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="6">
         <v>86.0</v>
       </c>
-      <c r="I14" s="2" t="s">
-        <v>23</v>
+      <c r="I14" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="J14" s="12">
         <f>H14-C14</f>
@@ -1425,32 +1425,32 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>53</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="8">
+        <v>19</v>
+      </c>
+      <c r="D15" s="6">
         <v>19.0</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="6">
         <v>19.0</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="6">
         <v>18.0</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="6">
         <v>18.0</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="6">
         <v>35.0</v>
       </c>
-      <c r="I15" s="2" t="s">
-        <v>23</v>
+      <c r="I15" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="J15" s="12">
         <f>H15-D15</f>
@@ -1458,32 +1458,32 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="6">
         <v>8.0</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="6">
         <v>10.0</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="6">
         <v>11.0</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="6">
         <v>12.0</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="6">
         <v>43.0</v>
       </c>
-      <c r="I16" s="2" t="s">
-        <v>23</v>
+      <c r="I16" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="J16" s="12">
         <f>H16-C16</f>
@@ -1491,31 +1491,31 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="8">
+        <v>19</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="6">
         <v>7.0</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="6">
         <v>8.0</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="6">
         <v>78.0</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17" s="6">
         <v>78.0</v>
       </c>
       <c r="J17" s="12">
@@ -1524,31 +1524,31 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>57</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="8">
+        <v>19</v>
+      </c>
+      <c r="D18" s="6">
         <v>9.0</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="6">
         <v>10.0</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="6">
         <v>10.0</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="6">
         <v>14.0</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="6">
         <v>33.0</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18" s="6">
         <v>63.0</v>
       </c>
       <c r="J18" s="12">
@@ -1557,32 +1557,32 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="8">
+        <v>19</v>
+      </c>
+      <c r="D19" s="6">
         <v>11.0</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="6">
         <v>13.0</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="6">
         <v>16.0</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="6">
         <v>18.0</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="6">
         <v>55.0</v>
       </c>
-      <c r="I19" s="2" t="s">
-        <v>23</v>
+      <c r="I19" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="J19" s="12">
         <f>H19-D19</f>
@@ -1590,31 +1590,31 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="6">
         <v>17.0</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="6">
         <v>17.0</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="6">
         <v>17.0</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="6">
         <v>17.0</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H20" s="6">
         <v>17.0</v>
       </c>
-      <c r="I20" s="8">
+      <c r="I20" s="6">
         <v>68.0</v>
       </c>
       <c r="J20" s="12">
@@ -1623,32 +1623,32 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="6">
         <v>13.0</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="6">
         <v>11.0</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="6">
         <v>11.0</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="6">
         <v>11.0</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="6">
         <v>93.0</v>
       </c>
-      <c r="I21" s="2" t="s">
-        <v>23</v>
+      <c r="I21" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="J21" s="12">
         <f>H21-C21</f>
@@ -1656,31 +1656,31 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="8">
+        <v>19</v>
+      </c>
+      <c r="D22" s="6">
         <v>19.0</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="6">
         <v>19.0</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="6">
         <v>21.0</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="6">
         <v>25.0</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H22" s="6">
         <v>31.0</v>
       </c>
-      <c r="I22" s="8">
+      <c r="I22" s="6">
         <v>39.0</v>
       </c>
       <c r="J22" s="12">
